--- a/public/queue.xlsx
+++ b/public/queue.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -534,9 +534,31 @@
         <v/>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="str">
+        <v>A0012</v>
+      </c>
+      <c r="B13" t="str">
+        <v>09/30/2025, 23:08:23</v>
+      </c>
+      <c r="C13" t="str">
+        <v/>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="str">
+        <v>A0013</v>
+      </c>
+      <c r="B14" t="str">
+        <v>09/30/2025, 23:08:25</v>
+      </c>
+      <c r="C14" t="str">
+        <v/>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:C12"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:C14"/>
   </ignoredErrors>
 </worksheet>
 </file>